--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -13519,6 +13519,56 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId536"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>268</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="714375" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="537" name="Image 537" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId537"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>268</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="714375" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="538" name="Image 538" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId538"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13821,7 +13871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:D268"/>
+  <dimension ref="B1:D269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13837,14 +13887,14 @@
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Наим.:2
-Место:наконец
+Место:202
 Инв.№:3</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Наим.:IP-видеорегистратор PTX-NVR4208
-Место:test2
+Место:___________________
 Инв.№:34003110201600001</t>
         </is>
       </c>
@@ -13853,13 +13903,13 @@
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>Наим.:Led панель LG 55 LX341C
-Место:201
+Место:___________________
 Инв.№:41012412201500018</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Наим.:Samcung UE32C4000PW
+          <t>Наим.:Samsung UE32C4000PW
 Место:___________________
 Инв.№:ВА1000000312</t>
         </is>
@@ -18108,20 +18158,35 @@
     <row r="268" ht="60" customHeight="1">
       <c r="B268" s="1" t="inlineStr">
         <is>
-          <t>Наим.:13
-Место:___________________
+          <t>Наим.:4324
+Место:___________________
+Инв.№:4</t>
+        </is>
+      </c>
+      <c r="D268" s="1" t="inlineStr">
+        <is>
+          <t>Наим.:123
+Место:202
 Инв.№:123</t>
         </is>
       </c>
-      <c r="D268" s="1" t="inlineStr">
-        <is>
-          <t>Наим.:стул1
-Место:12323
-Инв.№:12222</t>
-        </is>
-      </c>
-    </row>
-    <row r="269" ht="60" customHeight="1"/>
+    </row>
+    <row r="269" ht="60" customHeight="1">
+      <c r="B269" s="1" t="inlineStr">
+        <is>
+          <t>Наим.:123
+Место:202
+Инв.№:123</t>
+        </is>
+      </c>
+      <c r="D269" s="1" t="inlineStr">
+        <is>
+          <t>Наим.:12333
+Место:202
+Инв.№:3333</t>
+        </is>
+      </c>
+    </row>
     <row r="270" ht="60" customHeight="1"/>
     <row r="271" ht="60" customHeight="1"/>
     <row r="272" ht="60" customHeight="1"/>
@@ -18390,6 +18455,8 @@
     <row r="535" ht="60" customHeight="1"/>
     <row r="536" ht="60" customHeight="1"/>
     <row r="537" ht="60" customHeight="1"/>
+    <row r="538" ht="60" customHeight="1"/>
+    <row r="539" ht="60" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -13887,7 +13887,7 @@
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Наим.:2
-Место:202
+Место:1
 Инв.№:3</t>
         </is>
       </c>
@@ -13909,7 +13909,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Наим.:Samsung UE32C4000PW
+          <t>Наим.:Samcung UE32C4000PW
 Место:___________________
 Инв.№:ВА1000000312</t>
         </is>
@@ -18158,32 +18158,32 @@
     <row r="268" ht="60" customHeight="1">
       <c r="B268" s="1" t="inlineStr">
         <is>
-          <t>Наим.:4324
-Место:___________________
-Инв.№:4</t>
+          <t>Наим.:1111
+Место:2
+Инв.№:1111</t>
         </is>
       </c>
       <c r="D268" s="1" t="inlineStr">
         <is>
-          <t>Наим.:123
-Место:202
-Инв.№:123</t>
+          <t>Наим.:32333
+Место:1
+Инв.№:3333</t>
         </is>
       </c>
     </row>
     <row r="269" ht="60" customHeight="1">
       <c r="B269" s="1" t="inlineStr">
         <is>
-          <t>Наим.:123
-Место:202
-Инв.№:123</t>
+          <t>Наим.:32333
+Место:1
+Инв.№:3333</t>
         </is>
       </c>
       <c r="D269" s="1" t="inlineStr">
         <is>
-          <t>Наим.:12333
-Место:202
-Инв.№:3333</t>
+          <t>Наим.:33333
+Место:2
+Инв.№:33333</t>
         </is>
       </c>
     </row>
